--- a/input_files/polynomial_order_2.xlsx
+++ b/input_files/polynomial_order_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB343F9-F44A-424B-A552-126812BFCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1AE9CB-B468-2C43-913F-826CAC2E3056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{E28A5C9A-BFFB-9140-84AB-B38FDE4F4784}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A261E3-AE65-9147-A850-B334AFC26C2A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="194" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="194" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
